--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW17.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW17.xlsx
@@ -3105,37 +3105,37 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="n">
-        <v>1.5696836229476203</v>
+        <v>0.0</v>
       </c>
       <c r="C80" t="n">
-        <v>1.6384821580664193</v>
+        <v>0.0</v>
       </c>
       <c r="D80" t="n">
-        <v>1.4225878974197583</v>
+        <v>0.0</v>
       </c>
       <c r="E80" t="n">
-        <v>1.737866666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F80" t="n">
-        <v>1.606278966661152</v>
+        <v>0.0</v>
       </c>
       <c r="G80" t="n">
-        <v>1.3712487698028202</v>
+        <v>0.0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.3588670722163796</v>
+        <v>0.0</v>
       </c>
       <c r="I80" t="n">
-        <v>1.5696836229476203</v>
+        <v>0.0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.6384821580664193</v>
+        <v>0.0</v>
       </c>
       <c r="K80" t="n">
-        <v>1.4225878974197583</v>
+        <v>0.0</v>
       </c>
       <c r="L80" t="n">
-        <v>1.737866666666667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>7.313624506467766</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>7.205178121656824</v>
+        <v>0.0</v>
       </c>
       <c r="D122" t="n">
-        <v>7.335128594654332</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>7.4113015449599216</v>
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>7.388833015147687</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>7.1362977707678334</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>6.252747117356408</v>
+        <v>0.0</v>
       </c>
       <c r="I122" t="n">
-        <v>7.313624506467766</v>
+        <v>0.0</v>
       </c>
       <c r="J122" t="n">
-        <v>7.205178121656824</v>
+        <v>0.0</v>
       </c>
       <c r="K122" t="n">
-        <v>7.335128594654332</v>
+        <v>0.0</v>
       </c>
       <c r="L122" t="n">
-        <v>7.4113015449599216</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>4.462843589039769</v>
+        <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>4.396668568326025</v>
+        <v>0.0</v>
       </c>
       <c r="D127" t="n">
-        <v>4.475965589221306</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>4.522447051679341</v>
+        <v>0.0</v>
       </c>
       <c r="F127" t="n">
-        <v>4.5087365399981625</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>4.354637119746201</v>
+        <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>3.815486064659633</v>
+        <v>0.0</v>
       </c>
       <c r="I127" t="n">
-        <v>4.462843589039769</v>
+        <v>0.0</v>
       </c>
       <c r="J127" t="n">
-        <v>4.396668568326025</v>
+        <v>0.0</v>
       </c>
       <c r="K127" t="n">
-        <v>4.475965589221306</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>4.522447051679341</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>2.4084366226336997</v>
+        <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>2.379557161739185</v>
+        <v>0.0</v>
       </c>
       <c r="D164" t="n">
-        <v>2.4353176876844267</v>
+        <v>0.0</v>
       </c>
       <c r="E164" t="n">
-        <v>2.4304</v>
+        <v>0.0</v>
       </c>
       <c r="F164" t="n">
-        <v>2.0610863512681066</v>
+        <v>0.0</v>
       </c>
       <c r="G164" t="n">
-        <v>2.4414954376458256</v>
+        <v>0.0</v>
       </c>
       <c r="H164" t="n">
-        <v>2.372177856867044</v>
+        <v>0.0</v>
       </c>
       <c r="I164" t="n">
-        <v>2.4084366226336997</v>
+        <v>0.0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.379557161739185</v>
+        <v>0.0</v>
       </c>
       <c r="K164" t="n">
-        <v>2.4353176876844267</v>
+        <v>0.0</v>
       </c>
       <c r="L164" t="n">
-        <v>2.4304</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
@@ -6373,37 +6373,37 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="n">
-        <v>2.8098427264059826</v>
+        <v>0.0</v>
       </c>
       <c r="C166" t="n">
-        <v>2.776150022029049</v>
+        <v>0.0</v>
       </c>
       <c r="D166" t="n">
-        <v>2.8412039689651643</v>
+        <v>0.0</v>
       </c>
       <c r="E166" t="n">
-        <v>2.8354666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F166" t="n">
-        <v>2.4046007431461245</v>
+        <v>0.0</v>
       </c>
       <c r="G166" t="n">
-        <v>2.8484113439201297</v>
+        <v>0.0</v>
       </c>
       <c r="H166" t="n">
-        <v>2.7675408330115516</v>
+        <v>0.0</v>
       </c>
       <c r="I166" t="n">
-        <v>2.8098427264059826</v>
+        <v>0.0</v>
       </c>
       <c r="J166" t="n">
-        <v>2.776150022029049</v>
+        <v>0.0</v>
       </c>
       <c r="K166" t="n">
-        <v>2.8412039689651643</v>
+        <v>0.0</v>
       </c>
       <c r="L166" t="n">
-        <v>2.8354666666666666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5355136282018252</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.4563463563311583</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.514848169953682</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5324433869264329</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.5633570738548304</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.4989872654772953</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.46293266534036087</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5355136282018252</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.4563463563311583</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.514848169953682</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.5324433869264329</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -8083,37 +8083,37 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="n">
-        <v>0.23833292927558788</v>
+        <v>0.0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.20487651093180767</v>
+        <v>0.0</v>
       </c>
       <c r="D211" t="n">
-        <v>0.2406666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E211" t="n">
-        <v>0.2068844326505679</v>
+        <v>0.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.24515392589865376</v>
+        <v>0.0</v>
       </c>
       <c r="G211" t="n">
-        <v>0.24169265109683769</v>
+        <v>0.0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.23050549442051974</v>
+        <v>0.0</v>
       </c>
       <c r="I211" t="n">
-        <v>0.23833292927558788</v>
+        <v>0.0</v>
       </c>
       <c r="J211" t="n">
-        <v>0.20487651093180767</v>
+        <v>0.0</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2406666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2068844326505679</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
@@ -9033,37 +9033,37 @@
         <v>235.0</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.3999426752740265</v>
+        <v>-0.0</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.40008922225694227</v>
+        <v>-0.0</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.39047857107543066</v>
+        <v>-0.0</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.3805551905227384</v>
+        <v>-0.0</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.39214641085433916</v>
+        <v>-0.0</v>
       </c>
       <c r="G236" t="n">
-        <v>-0.35620594068627015</v>
+        <v>-0.0</v>
       </c>
       <c r="H236" t="n">
-        <v>-0.4099783994662216</v>
+        <v>-0.0</v>
       </c>
       <c r="I236" t="n">
-        <v>-0.3999426752740265</v>
+        <v>-0.0</v>
       </c>
       <c r="J236" t="n">
-        <v>-0.40008922225694227</v>
+        <v>-0.0</v>
       </c>
       <c r="K236" t="n">
-        <v>-0.39047857107543066</v>
+        <v>-0.0</v>
       </c>
       <c r="L236" t="n">
-        <v>-0.3805551905227384</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="237">
@@ -9641,37 +9641,37 @@
         <v>251.0</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.21038619581973592</v>
+        <v>-0.0</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.20666459586456803</v>
+        <v>-0.0</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.17831464455564028</v>
+        <v>-0.0</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.18309900602052387</v>
+        <v>-0.0</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.20730536764264282</v>
+        <v>-0.0</v>
       </c>
       <c r="G252" t="n">
-        <v>-0.20078464562863976</v>
+        <v>-0.0</v>
       </c>
       <c r="H252" t="n">
-        <v>-0.2003226420306153</v>
+        <v>-0.0</v>
       </c>
       <c r="I252" t="n">
-        <v>-0.21038619581973592</v>
+        <v>-0.0</v>
       </c>
       <c r="J252" t="n">
-        <v>-0.20666459586456803</v>
+        <v>-0.0</v>
       </c>
       <c r="K252" t="n">
-        <v>-0.17831464455564028</v>
+        <v>-0.0</v>
       </c>
       <c r="L252" t="n">
-        <v>-0.18309900602052387</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="253">
@@ -10819,37 +10819,37 @@
         <v>282.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4.450728837706425</v>
+        <v>0.0</v>
       </c>
       <c r="C283" t="n">
-        <v>4.6458023033199565</v>
+        <v>0.0</v>
       </c>
       <c r="D283" t="n">
-        <v>4.033649129452343</v>
+        <v>0.0</v>
       </c>
       <c r="E283" t="n">
-        <v>4.927600171362799</v>
+        <v>0.0</v>
       </c>
       <c r="F283" t="n">
-        <v>4.554492391845914</v>
+        <v>0.0</v>
       </c>
       <c r="G283" t="n">
-        <v>3.8880806005800617</v>
+        <v>0.0</v>
       </c>
       <c r="H283" t="n">
-        <v>3.8529731574608888</v>
+        <v>0.0</v>
       </c>
       <c r="I283" t="n">
-        <v>4.450728837706425</v>
+        <v>0.0</v>
       </c>
       <c r="J283" t="n">
-        <v>4.6458023033199565</v>
+        <v>0.0</v>
       </c>
       <c r="K283" t="n">
-        <v>4.033649129452343</v>
+        <v>0.0</v>
       </c>
       <c r="L283" t="n">
-        <v>4.927600171362799</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="284">
@@ -11959,37 +11959,37 @@
         <v>312.0</v>
       </c>
       <c r="B313" t="n">
-        <v>5.822649840775316</v>
+        <v>0.0</v>
       </c>
       <c r="C313" t="n">
-        <v>5.703925401819949</v>
+        <v>0.0</v>
       </c>
       <c r="D313" t="n">
-        <v>5.508649234139702</v>
+        <v>0.0</v>
       </c>
       <c r="E313" t="n">
-        <v>5.683813673416852</v>
+        <v>0.0</v>
       </c>
       <c r="F313" t="n">
-        <v>5.1481612238990655</v>
+        <v>0.0</v>
       </c>
       <c r="G313" t="n">
-        <v>5.808225606048661</v>
+        <v>0.0</v>
       </c>
       <c r="H313" t="n">
-        <v>5.773189827633965</v>
+        <v>0.0</v>
       </c>
       <c r="I313" t="n">
-        <v>5.822649840775316</v>
+        <v>0.0</v>
       </c>
       <c r="J313" t="n">
-        <v>5.703925401819949</v>
+        <v>0.0</v>
       </c>
       <c r="K313" t="n">
-        <v>5.508649234139702</v>
+        <v>0.0</v>
       </c>
       <c r="L313" t="n">
-        <v>5.683813673416852</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="314">
@@ -15113,37 +15113,37 @@
         <v>395.0</v>
       </c>
       <c r="B396" t="n">
-        <v>0.3883324074185621</v>
+        <v>0.0</v>
       </c>
       <c r="C396" t="n">
-        <v>0.38367593007191997</v>
+        <v>0.0</v>
       </c>
       <c r="D396" t="n">
-        <v>0.39266666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E396" t="n">
-        <v>0.39187374669547903</v>
+        <v>0.0</v>
       </c>
       <c r="F396" t="n">
-        <v>0.3323262140941191</v>
+        <v>0.0</v>
       </c>
       <c r="G396" t="n">
-        <v>0.3936627570318416</v>
+        <v>0.0</v>
       </c>
       <c r="H396" t="n">
-        <v>0.3824861029454165</v>
+        <v>0.0</v>
       </c>
       <c r="I396" t="n">
-        <v>0.3883324074185621</v>
+        <v>0.0</v>
       </c>
       <c r="J396" t="n">
-        <v>0.38367593007191997</v>
+        <v>0.0</v>
       </c>
       <c r="K396" t="n">
-        <v>0.39266666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="L396" t="n">
-        <v>0.39187374669547903</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="397">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>4.309777535910941</v>
+        <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>3.7122093142746233</v>
+        <v>0.0</v>
       </c>
       <c r="D428" t="n">
-        <v>3.8933351677605113</v>
+        <v>0.0</v>
       </c>
       <c r="E428" t="n">
-        <v>4.312029507290086</v>
+        <v>0.0</v>
       </c>
       <c r="F428" t="n">
-        <v>4.4147703449094635</v>
+        <v>0.0</v>
       </c>
       <c r="G428" t="n">
-        <v>4.397253577233783</v>
+        <v>0.0</v>
       </c>
       <c r="H428" t="n">
-        <v>3.75094406494023</v>
+        <v>0.0</v>
       </c>
       <c r="I428" t="n">
-        <v>4.309777535910941</v>
+        <v>0.0</v>
       </c>
       <c r="J428" t="n">
-        <v>3.7122093142746233</v>
+        <v>0.0</v>
       </c>
       <c r="K428" t="n">
-        <v>3.8933351677605113</v>
+        <v>0.0</v>
       </c>
       <c r="L428" t="n">
-        <v>4.312029507290086</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -17659,37 +17659,37 @@
         <v>462.0</v>
       </c>
       <c r="B463" t="n">
-        <v>0.2772503997076394</v>
+        <v>0.0</v>
       </c>
       <c r="C463" t="n">
-        <v>0.23833087068245248</v>
+        <v>0.0</v>
       </c>
       <c r="D463" t="n">
-        <v>0.2799652139234336</v>
+        <v>0.0</v>
       </c>
       <c r="E463" t="n">
-        <v>0.2406666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F463" t="n">
-        <v>0.28518519934232495</v>
+        <v>0.0</v>
       </c>
       <c r="G463" t="n">
-        <v>0.28115873172319106</v>
+        <v>0.0</v>
       </c>
       <c r="H463" t="n">
-        <v>0.2681448201771509</v>
+        <v>0.0</v>
       </c>
       <c r="I463" t="n">
-        <v>0.2772503997076394</v>
+        <v>0.0</v>
       </c>
       <c r="J463" t="n">
-        <v>0.23833087068245248</v>
+        <v>0.0</v>
       </c>
       <c r="K463" t="n">
-        <v>0.2799652139234336</v>
+        <v>0.0</v>
       </c>
       <c r="L463" t="n">
-        <v>0.2406666666666667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="464">
@@ -18305,37 +18305,37 @@
         <v>479.0</v>
       </c>
       <c r="B480" t="n">
-        <v>0.7117228456907126</v>
+        <v>0.0</v>
       </c>
       <c r="C480" t="n">
-        <v>0.8474414907949431</v>
+        <v>0.0</v>
       </c>
       <c r="D480" t="n">
-        <v>0.8689023321274049</v>
+        <v>0.0</v>
       </c>
       <c r="E480" t="n">
-        <v>0.7317072268090639</v>
+        <v>0.0</v>
       </c>
       <c r="F480" t="n">
-        <v>0.8412368099043562</v>
+        <v>0.0</v>
       </c>
       <c r="G480" t="n">
-        <v>0.8626135330268478</v>
+        <v>0.0</v>
       </c>
       <c r="H480" t="n">
-        <v>0.8710074861267535</v>
+        <v>0.0</v>
       </c>
       <c r="I480" t="n">
-        <v>0.7117228456907126</v>
+        <v>0.0</v>
       </c>
       <c r="J480" t="n">
-        <v>0.8474414907949431</v>
+        <v>0.0</v>
       </c>
       <c r="K480" t="n">
-        <v>0.8689023321274049</v>
+        <v>0.0</v>
       </c>
       <c r="L480" t="n">
-        <v>0.7317072268090639</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="481">
@@ -19141,37 +19141,37 @@
         <v>501.0</v>
       </c>
       <c r="B502" t="n">
-        <v>0.28235489809435715</v>
+        <v>0.0</v>
       </c>
       <c r="C502" t="n">
-        <v>0.2773602168986871</v>
+        <v>0.0</v>
       </c>
       <c r="D502" t="n">
-        <v>0.23931234221934766</v>
+        <v>0.0</v>
       </c>
       <c r="E502" t="n">
-        <v>0.24573333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F502" t="n">
-        <v>0.27822018325434605</v>
+        <v>0.0</v>
       </c>
       <c r="G502" t="n">
-        <v>0.2694688590878926</v>
+        <v>0.0</v>
       </c>
       <c r="H502" t="n">
-        <v>0.26884881375492226</v>
+        <v>0.0</v>
       </c>
       <c r="I502" t="n">
-        <v>0.28235489809435715</v>
+        <v>0.0</v>
       </c>
       <c r="J502" t="n">
-        <v>0.2773602168986871</v>
+        <v>0.0</v>
       </c>
       <c r="K502" t="n">
-        <v>0.23931234221934766</v>
+        <v>0.0</v>
       </c>
       <c r="L502" t="n">
-        <v>0.24573333333333336</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="503">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>0.6315258146620358</v>
+        <v>0.0</v>
       </c>
       <c r="C510" t="n">
-        <v>0.7464452236617468</v>
+        <v>0.0</v>
       </c>
       <c r="D510" t="n">
-        <v>0.7470122662810743</v>
+        <v>0.0</v>
       </c>
       <c r="E510" t="n">
-        <v>0.7436987732908199</v>
+        <v>0.0</v>
       </c>
       <c r="F510" t="n">
-        <v>0.6322976072208172</v>
+        <v>0.0</v>
       </c>
       <c r="G510" t="n">
-        <v>0.6365810197797592</v>
+        <v>0.0</v>
       </c>
       <c r="H510" t="n">
-        <v>0.7953118337167525</v>
+        <v>0.0</v>
       </c>
       <c r="I510" t="n">
-        <v>0.6315258146620358</v>
+        <v>0.0</v>
       </c>
       <c r="J510" t="n">
-        <v>0.7464452236617468</v>
+        <v>0.0</v>
       </c>
       <c r="K510" t="n">
-        <v>0.7470122662810743</v>
+        <v>0.0</v>
       </c>
       <c r="L510" t="n">
-        <v>0.7436987732908199</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="511">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>1.0541015700908247</v>
+        <v>0.0</v>
       </c>
       <c r="C521" t="n">
-        <v>1.2459175285965463</v>
+        <v>0.0</v>
       </c>
       <c r="D521" t="n">
-        <v>1.246863999036019</v>
+        <v>0.0</v>
       </c>
       <c r="E521" t="n">
-        <v>1.241333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F521" t="n">
-        <v>1.0553897957327667</v>
+        <v>0.0</v>
       </c>
       <c r="G521" t="n">
-        <v>1.0625393877191907</v>
+        <v>0.0</v>
       </c>
       <c r="H521" t="n">
-        <v>1.3274824768347488</v>
+        <v>0.0</v>
       </c>
       <c r="I521" t="n">
-        <v>1.0541015700908247</v>
+        <v>0.0</v>
       </c>
       <c r="J521" t="n">
-        <v>1.2459175285965463</v>
+        <v>0.0</v>
       </c>
       <c r="K521" t="n">
-        <v>1.246863999036019</v>
+        <v>0.0</v>
       </c>
       <c r="L521" t="n">
-        <v>1.241333333333333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="522">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>0.8776200284857211</v>
+        <v>0.0</v>
       </c>
       <c r="C527" t="n">
-        <v>0.8386982456520079</v>
+        <v>0.0</v>
       </c>
       <c r="D527" t="n">
-        <v>0.8184</v>
+        <v>0.0</v>
       </c>
       <c r="E527" t="n">
-        <v>0.9739473564890301</v>
+        <v>0.0</v>
       </c>
       <c r="F527" t="n">
-        <v>0.9332798143681755</v>
+        <v>0.0</v>
       </c>
       <c r="G527" t="n">
-        <v>0.9780362752172898</v>
+        <v>0.0</v>
       </c>
       <c r="H527" t="n">
-        <v>0.8460123473860228</v>
+        <v>0.0</v>
       </c>
       <c r="I527" t="n">
-        <v>0.8776200284857211</v>
+        <v>0.0</v>
       </c>
       <c r="J527" t="n">
-        <v>0.8386982456520079</v>
+        <v>0.0</v>
       </c>
       <c r="K527" t="n">
-        <v>0.8184</v>
+        <v>0.0</v>
       </c>
       <c r="L527" t="n">
-        <v>0.9739473564890301</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="528">
@@ -20243,37 +20243,37 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="n">
-        <v>1.1643854638347557</v>
+        <v>0.0</v>
       </c>
       <c r="C531" t="n">
-        <v>1.1127458513747877</v>
+        <v>0.0</v>
       </c>
       <c r="D531" t="n">
-        <v>1.0858150824640946</v>
+        <v>0.0</v>
       </c>
       <c r="E531" t="n">
-        <v>1.2921880855349743</v>
+        <v>0.0</v>
       </c>
       <c r="F531" t="n">
-        <v>1.238232280792101</v>
+        <v>0.0</v>
       </c>
       <c r="G531" t="n">
-        <v>1.297613072859161</v>
+        <v>0.0</v>
       </c>
       <c r="H531" t="n">
-        <v>1.1224498616111884</v>
+        <v>0.0</v>
       </c>
       <c r="I531" t="n">
-        <v>1.1643854638347557</v>
+        <v>0.0</v>
       </c>
       <c r="J531" t="n">
-        <v>1.1127458513747877</v>
+        <v>0.0</v>
       </c>
       <c r="K531" t="n">
-        <v>1.0858150824640946</v>
+        <v>0.0</v>
       </c>
       <c r="L531" t="n">
-        <v>1.2921880855349743</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="532">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>0.7803765643489506</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>0.7671774712578875</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>0.6941694673227056</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>0.804369371157146</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>0.8103198502975205</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>0.7216904321689034</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>0.7967454477668302</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>0.7803765643489506</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>0.7671774712578875</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>0.6941694673227056</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>0.804369371157146</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
